--- a/output & statistics/experiment results.xlsx
+++ b/output & statistics/experiment results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>correct</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,59 @@
   </si>
   <si>
     <t>training data: 21novels, 2973 sentences for sentence type classifying; 32 characters for personality calssifying.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true positive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false positive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true negative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false negative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impulsive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calm</t>
+  </si>
+  <si>
+    <t>extrovert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>introvert</t>
+  </si>
+  <si>
+    <t>optimistic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pessimistic</t>
+  </si>
+  <si>
+    <t>F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accuracy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,26 +487,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -473,7 +532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -499,7 +558,7 @@
         <v>0.61971830985915499</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -525,7 +584,7 @@
         <v>0.88429752066115697</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -547,11 +606,11 @@
         <v>0.90697674418604646</v>
       </c>
       <c r="G6">
-        <f>2*E6*F6/(E6+F6)</f>
-        <v>0.78787878787878773</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <f>H162*E6*F6/(E6+F6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -577,7 +636,7 @@
         <v>0.88888888888888884</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -603,7 +662,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -629,7 +688,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -655,7 +714,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -681,7 +740,7 @@
         <v>0.74999999999999989</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -705,6 +764,230 @@
       <c r="G13">
         <f t="shared" si="2"/>
         <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <f>B16/(B16+C16)</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="G16">
+        <f>B16/(B16+C17)</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="H16">
+        <f>2*F16*G16/(F16+G16)</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="I16">
+        <f>(B16+D16)/(B16+C16+D16+E16)</f>
+        <v>0.81818181818181823</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <f>B17/(B17+C17)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <f>B17/(B17+C16)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17:H21" si="3">2*F17*G17/(F17+G17)</f>
+        <v>0.5</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ref="I17:I21" si="4">(B17+D17)/(B17+C17+D17+E17)</f>
+        <v>0.81818181818181823</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ref="F18:F21" si="5">B18/(B18+C18)</f>
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <f>B18/(B18+C19)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="4"/>
+        <v>0.63636363636363635</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="5"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="G19">
+        <f>B19/(B19+C18)</f>
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="4"/>
+        <v>0.63636363636363635</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <f>B20/(B20+C21)</f>
+        <v>0.6</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>0.81818181818181823</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="5"/>
+        <v>0.75</v>
+      </c>
+      <c r="G21">
+        <f>B21/(B21+C20)</f>
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="4"/>
+        <v>0.81818181818181823</v>
       </c>
     </row>
   </sheetData>
